--- a/3_회계장부_1117.xlsx
+++ b/3_회계장부_1117.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D9E679-6F3C-B242-A4C2-DE3C9532B917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4C179B-FD77-3641-B7E9-FD426B080C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:T169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I107" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O128" sqref="O128"/>
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/3_회계장부_1117.xlsx
+++ b/3_회계장부_1117.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4C179B-FD77-3641-B7E9-FD426B080C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0E5CE8-7D86-4041-9D47-E008161F422C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="26880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="임베디드" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="220">
   <si>
     <t>사용단체</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>사유서 17</t>
+  </si>
+  <si>
+    <t>11월 25일</t>
   </si>
 </sst>
 </file>
@@ -1390,8 +1393,8 @@
   </sheetPr>
   <dimension ref="A1:T169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I107" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J136" sqref="J136"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5464,11 +5467,19 @@
       <c r="T127" s="1"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A128" s="12"/>
+      <c r="A128" s="12" t="s">
+        <v>219</v>
+      </c>
       <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="13"/>
+      <c r="C128" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E128" s="13">
+        <v>69</v>
+      </c>
       <c r="F128" s="12"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
@@ -5476,7 +5487,7 @@
       <c r="J128" s="8"/>
       <c r="K128" s="8">
         <f t="shared" si="4"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
@@ -5501,7 +5512,7 @@
       <c r="J129" s="8"/>
       <c r="K129" s="8">
         <f t="shared" si="4"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
@@ -5526,7 +5537,7 @@
       <c r="J130" s="8"/>
       <c r="K130" s="8">
         <f t="shared" si="4"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
@@ -5551,7 +5562,7 @@
       <c r="J131" s="8"/>
       <c r="K131" s="8">
         <f t="shared" si="4"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
@@ -5576,7 +5587,7 @@
       <c r="J132" s="8"/>
       <c r="K132" s="8">
         <f t="shared" ref="K132:K169" si="5">K131+E132-J132</f>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
@@ -5601,7 +5612,7 @@
       <c r="J133" s="8"/>
       <c r="K133" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
@@ -5626,7 +5637,7 @@
       <c r="J134" s="8"/>
       <c r="K134" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
@@ -5651,7 +5662,7 @@
       <c r="J135" s="8"/>
       <c r="K135" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
@@ -5676,7 +5687,7 @@
       <c r="J136" s="8"/>
       <c r="K136" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
@@ -5701,7 +5712,7 @@
       <c r="J137" s="8"/>
       <c r="K137" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
@@ -5719,7 +5730,7 @@
       <c r="J138" s="8"/>
       <c r="K138" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
@@ -5737,7 +5748,7 @@
       <c r="J139" s="8"/>
       <c r="K139" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
@@ -5755,7 +5766,7 @@
       <c r="J140" s="8"/>
       <c r="K140" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
@@ -5773,7 +5784,7 @@
       <c r="J141" s="8"/>
       <c r="K141" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
@@ -5791,7 +5802,7 @@
       <c r="J142" s="8"/>
       <c r="K142" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
@@ -5809,7 +5820,7 @@
       <c r="J143" s="8"/>
       <c r="K143" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
@@ -5827,7 +5838,7 @@
       <c r="J144" s="8"/>
       <c r="K144" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
@@ -5845,7 +5856,7 @@
       <c r="J145" s="8"/>
       <c r="K145" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
@@ -5863,7 +5874,7 @@
       <c r="J146" s="8"/>
       <c r="K146" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
@@ -5881,7 +5892,7 @@
       <c r="J147" s="8"/>
       <c r="K147" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
@@ -5899,7 +5910,7 @@
       <c r="J148" s="8"/>
       <c r="K148" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
@@ -5917,7 +5928,7 @@
       <c r="J149" s="8"/>
       <c r="K149" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
@@ -5935,7 +5946,7 @@
       <c r="J150" s="8"/>
       <c r="K150" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
@@ -5953,7 +5964,7 @@
       <c r="J151" s="8"/>
       <c r="K151" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
@@ -5971,7 +5982,7 @@
       <c r="J152" s="8"/>
       <c r="K152" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
@@ -5989,7 +6000,7 @@
       <c r="J153" s="8"/>
       <c r="K153" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
@@ -6007,7 +6018,7 @@
       <c r="J154" s="8"/>
       <c r="K154" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
@@ -6025,7 +6036,7 @@
       <c r="J155" s="8"/>
       <c r="K155" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
@@ -6043,7 +6054,7 @@
       <c r="J156" s="8"/>
       <c r="K156" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
@@ -6061,7 +6072,7 @@
       <c r="J157" s="8"/>
       <c r="K157" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
@@ -6079,7 +6090,7 @@
       <c r="J158" s="8"/>
       <c r="K158" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
@@ -6097,7 +6108,7 @@
       <c r="J159" s="8"/>
       <c r="K159" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
@@ -6115,7 +6126,7 @@
       <c r="J160" s="8"/>
       <c r="K160" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
@@ -6133,7 +6144,7 @@
       <c r="J161" s="8"/>
       <c r="K161" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L161" s="5"/>
       <c r="M161" s="5"/>
@@ -6151,7 +6162,7 @@
       <c r="J162" s="8"/>
       <c r="K162" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L162" s="5"/>
       <c r="M162" s="5"/>
@@ -6169,7 +6180,7 @@
       <c r="J163" s="8"/>
       <c r="K163" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L163" s="5"/>
       <c r="M163" s="5"/>
@@ -6187,7 +6198,7 @@
       <c r="J164" s="8"/>
       <c r="K164" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L164" s="5"/>
       <c r="M164" s="5"/>
@@ -6205,7 +6216,7 @@
       <c r="J165" s="8"/>
       <c r="K165" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L165" s="5"/>
       <c r="M165" s="5"/>
@@ -6223,7 +6234,7 @@
       <c r="J166" s="8"/>
       <c r="K166" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L166" s="5"/>
       <c r="M166" s="5"/>
@@ -6241,7 +6252,7 @@
       <c r="J167" s="8"/>
       <c r="K167" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L167" s="5"/>
       <c r="M167" s="5"/>
@@ -6259,7 +6270,7 @@
       <c r="J168" s="8"/>
       <c r="K168" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L168" s="5"/>
       <c r="M168" s="5"/>
@@ -6277,7 +6288,7 @@
       <c r="J169" s="8"/>
       <c r="K169" s="8">
         <f t="shared" si="5"/>
-        <v>585618</v>
+        <v>585687</v>
       </c>
       <c r="L169" s="5"/>
       <c r="M169" s="5"/>
